--- a/DML_Project_Sreekanth/target/classes/testData/TestCase.xlsx
+++ b/DML_Project_Sreekanth/target/classes/testData/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="11850" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="14385" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Module</t>
   </si>
@@ -50,6 +50,24 @@
     <t xml:space="preserve">Verifty URL </t>
   </si>
   <si>
+    <t>Verifty Functionality login buttin with vali valies</t>
+  </si>
+  <si>
+    <t>SETEXT</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>sadar</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
     <t>New Module Started</t>
   </si>
   <si>
@@ -57,33 +75,13 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Verifty Functionality login buttin with vali valies</t>
-  </si>
-  <si>
-    <t>SETEXT</t>
-  </si>
-  <si>
-    <t>uname</t>
-  </si>
-  <si>
-    <t>pd</t>
-  </si>
-  <si>
-    <t>lg</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>CLICK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,18 +444,18 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -493,7 +491,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,7 +504,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,64 +519,70 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -587,7 +591,9 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -596,7 +602,9 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -605,7 +613,9 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -614,7 +624,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -623,7 +635,9 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -632,7 +646,9 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -641,7 +657,9 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -650,7 +668,9 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -659,7 +679,9 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -668,7 +690,9 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -677,7 +701,9 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -686,7 +712,9 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -695,7 +723,9 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -704,7 +734,9 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -713,7 +745,9 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -722,7 +756,9 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -731,7 +767,9 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/DML_Project_Sreekanth/target/classes/testData/TestCase.xlsx
+++ b/DML_Project_Sreekanth/target/classes/testData/TestCase.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="14385" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="13365" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Module</t>
   </si>
@@ -47,41 +46,55 @@
     <t>url</t>
   </si>
   <si>
+    <t>GETTEXT</t>
+  </si>
+  <si>
+    <t>login_label</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verifty URL </t>
   </si>
   <si>
-    <t>Verifty Functionality login buttin with vali valies</t>
-  </si>
-  <si>
-    <t>SETEXT</t>
-  </si>
-  <si>
-    <t>uname</t>
-  </si>
-  <si>
-    <t>xpath</t>
+    <t>HMR Login</t>
+  </si>
+  <si>
+    <t>LOGOUT</t>
+  </si>
+  <si>
+    <t>Verifh functiona of log with valid vaue</t>
+  </si>
+  <si>
+    <t>SETTEXT</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>log</t>
   </si>
   <si>
     <t>sadar</t>
   </si>
   <si>
+    <t>sasdar</t>
+  </si>
+  <si>
+    <t>pageeee</t>
+  </si>
+  <si>
     <t>pwd</t>
   </si>
   <si>
-    <t>New Module Started</t>
-  </si>
-  <si>
-    <t>New TC Started</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>useid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,21 +454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -490,22 +503,18 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -518,82 +527,86 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -602,9 +615,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -613,9 +624,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -624,9 +633,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -635,9 +642,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -646,9 +651,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -657,9 +660,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -668,9 +669,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -679,9 +678,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -690,9 +687,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -701,9 +696,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -712,9 +705,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -723,20 +714,18 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -745,9 +734,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -756,9 +743,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -767,13 +752,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
